--- a/tianyan-docs/天演云平台-api错误码.xlsx
+++ b/tianyan-docs/天演云平台-api错误码.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">错误码!$A$1:$X$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">错误码!$A$1:$X$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">错误码自整理!$C$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -655,10 +655,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -724,39 +724,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,10 +739,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,14 +764,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,21 +847,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -840,22 +855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,7 +960,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,19 +1026,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,91 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,17 +1226,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,35 +1257,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,6 +1285,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1331,10 +1331,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,137 +1343,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1789,9 +1789,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1815,9 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,7 +2145,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="$A4:$XFD13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3462,8 +3456,8 @@
       <c r="X31" s="88"/>
     </row>
     <row r="32" s="65" customFormat="1" spans="1:24">
-      <c r="A32" s="105"/>
-      <c r="B32" s="106">
+      <c r="A32" s="102"/>
+      <c r="B32" s="105">
         <v>6401</v>
       </c>
       <c r="C32" s="87" t="s">
@@ -3498,8 +3492,8 @@
       <c r="X32" s="86"/>
     </row>
     <row r="33" s="65" customFormat="1" spans="1:24">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106">
+      <c r="A33" s="102"/>
+      <c r="B33" s="105">
         <v>6402</v>
       </c>
       <c r="C33" s="87" t="s">
@@ -3533,7 +3527,7 @@
       <c r="A34" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="107"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="37" t="s">
         <v>109</v>
       </c>
@@ -3567,7 +3561,7 @@
     </row>
     <row r="35" s="63" customFormat="1" ht="27" spans="1:24">
       <c r="A35" s="97"/>
-      <c r="B35" s="106">
+      <c r="B35" s="105">
         <v>6403</v>
       </c>
       <c r="C35" s="74" t="s">
@@ -3619,7 +3613,7 @@
     </row>
     <row r="36" s="63" customFormat="1" spans="1:24">
       <c r="A36" s="97"/>
-      <c r="B36" s="106">
+      <c r="B36" s="105">
         <v>6404</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -3657,7 +3651,7 @@
     </row>
     <row r="37" s="63" customFormat="1" spans="1:24">
       <c r="A37" s="97"/>
-      <c r="B37" s="106">
+      <c r="B37" s="105">
         <v>6405</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -3694,8 +3688,8 @@
       <c r="X37" s="100"/>
     </row>
     <row r="38" s="65" customFormat="1" spans="1:24">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106">
+      <c r="A38" s="102"/>
+      <c r="B38" s="105">
         <v>6406</v>
       </c>
       <c r="C38" s="85" t="s">
@@ -3733,7 +3727,7 @@
     </row>
     <row r="39" s="63" customFormat="1" ht="27" spans="1:24">
       <c r="A39" s="97"/>
-      <c r="B39" s="106">
+      <c r="B39" s="105">
         <v>6407</v>
       </c>
       <c r="C39" s="73" t="s">
@@ -3782,20 +3776,20 @@
       <c r="X39" s="75"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:24">
-      <c r="A40" s="108"/>
-      <c r="B40" s="106">
+      <c r="A40" s="107"/>
+      <c r="B40" s="105">
         <v>6408</v>
       </c>
       <c r="C40" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="109" t="s">
+      <c r="D40" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="109" t="s">
+      <c r="F40" s="108" t="s">
         <v>106</v>
       </c>
       <c r="G40" s="95"/>
@@ -3822,8 +3816,8 @@
       <c r="X40" s="95"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:24">
-      <c r="A41" s="110"/>
-      <c r="B41" s="106">
+      <c r="A41" s="109"/>
+      <c r="B41" s="105">
         <v>6409</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -3839,7 +3833,7 @@
         <v>106</v>
       </c>
       <c r="G41" s="75"/>
-      <c r="H41" s="111"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
       <c r="K41" s="75" t="s">
@@ -3864,11 +3858,11 @@
       <c r="X41" s="75"/>
     </row>
     <row r="42" s="4" customFormat="1" ht="27" spans="1:24">
-      <c r="A42" s="108"/>
-      <c r="B42" s="106">
+      <c r="A42" s="107"/>
+      <c r="B42" s="105">
         <v>6410</v>
       </c>
-      <c r="C42" s="112" t="s">
+      <c r="C42" s="111" t="s">
         <v>130</v>
       </c>
       <c r="D42" s="93" t="s">
@@ -3880,32 +3874,32 @@
       <c r="F42" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="113"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="112"/>
     </row>
     <row r="43" s="65" customFormat="1" ht="12" customHeight="1" spans="1:24">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="115"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="8" t="s">
         <v>132</v>
       </c>
@@ -3945,7 +3939,7 @@
       <c r="A44" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="116"/>
+      <c r="B44" s="114"/>
       <c r="C44" s="20" t="s">
         <v>134</v>
       </c>
@@ -3980,8 +3974,8 @@
       <c r="X44" s="83"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X37">
-    <sortState ref="A2:X37">
+  <autoFilter ref="A1:X44">
+    <sortState ref="A1:X44">
       <sortCondition ref="B1"/>
     </sortState>
     <extLst/>

--- a/tianyan-docs/天演云平台-api错误码.xlsx
+++ b/tianyan-docs/天演云平台-api错误码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="10320" tabRatio="445"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="445"/>
   </bookViews>
   <sheets>
     <sheet name="错误码" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="203">
   <si>
     <t>是否实现</t>
   </si>
@@ -103,13 +103,13 @@
     <t>系统异常</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>backend error</t>
   </si>
   <si>
     <t>后端识别服务异常</t>
-  </si>
-  <si>
-    <t>√</t>
   </si>
   <si>
     <t>暂不实现</t>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>参数异常</t>
-  </si>
-  <si>
-    <t>？</t>
   </si>
   <si>
     <t>invalid method</t>
@@ -291,7 +288,7 @@
     <t>请求参数格式不符合规定</t>
   </si>
   <si>
-    <t>(已包含)</t>
+    <t>(6310已包含)</t>
   </si>
   <si>
     <t>param[max_face_num] format
@@ -655,10 +652,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -724,81 +721,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -815,7 +737,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,9 +788,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,24 +857,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,7 +945,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,13 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,61 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,37 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,7 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,20 +1219,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,26 +1250,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,16 +1291,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1331,10 +1322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,137 +1334,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,146 +1669,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2141,11 +2054,11 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2153,7 +2066,7 @@
     <col min="1" max="1" width="9" style="66"/>
     <col min="2" max="2" width="11.75" style="67" customWidth="1"/>
     <col min="3" max="3" width="38.125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="36.3416666666667" style="58" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="58" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="58" customWidth="1"/>
     <col min="7" max="7" width="12" style="58" customWidth="1"/>
@@ -2181,73 +2094,73 @@
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="69" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2269,520 +2182,638 @@
         <v>26</v>
       </c>
       <c r="G2" s="75"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="75" t="s">
+        <v>27</v>
+      </c>
       <c r="X2" s="75"/>
     </row>
     <row r="3" s="59" customFormat="1" spans="1:24">
       <c r="A3" s="76"/>
-      <c r="B3" s="77">
+      <c r="B3" s="72">
         <v>6001</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
     </row>
     <row r="4" s="59" customFormat="1" ht="27" spans="1:24">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
     </row>
     <row r="5" s="60" customFormat="1" ht="84" customHeight="1" spans="1:24">
-      <c r="A5" s="81"/>
-      <c r="B5" s="7">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72">
         <v>6100</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="75"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="32.25" customHeight="1" spans="1:24">
-      <c r="A6" s="81"/>
-      <c r="B6" s="7">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72">
         <v>6101</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="75"/>
     </row>
     <row r="7" s="60" customFormat="1" spans="1:24">
-      <c r="A7" s="81"/>
-      <c r="B7" s="7">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72">
         <v>6102</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="75"/>
     </row>
     <row r="8" s="61" customFormat="1" spans="1:24">
-      <c r="A8" s="81"/>
-      <c r="B8" s="7">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72">
         <v>6103</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
-        <v>29</v>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" s="58" customFormat="1" ht="27" spans="1:24">
-      <c r="A9" s="81"/>
-      <c r="B9" s="7">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72">
         <v>6104</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83" t="s">
-        <v>29</v>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="60" customFormat="1" spans="1:24">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="72">
         <v>6200</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="G10" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
     </row>
     <row r="11" s="58" customFormat="1" spans="1:24">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="75">
         <v>6201</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="G11" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
     </row>
     <row r="12" s="58" customFormat="1" spans="1:24">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="75">
         <v>6202</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="G12" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
     </row>
     <row r="13" s="58" customFormat="1" spans="1:24">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="75">
         <v>6203</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="G13" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="77"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="79" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="72">
         <v>6300</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
     </row>
     <row r="15" s="58" customFormat="1" spans="1:24">
-      <c r="A15" s="71" t="s">
-        <v>57</v>
-      </c>
+      <c r="A15" s="71"/>
       <c r="B15" s="72">
         <v>6301</v>
       </c>
       <c r="C15" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="73" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>55</v>
@@ -2791,7 +2822,7 @@
         <v>56</v>
       </c>
       <c r="G15" s="75"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="75"/>
@@ -2810,40 +2841,40 @@
       <c r="X15" s="75"/>
     </row>
     <row r="16" s="62" customFormat="1" ht="27" spans="1:24">
-      <c r="A16" s="81"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="72">
         <v>6302</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
     </row>
     <row r="17" s="62" customFormat="1" ht="40.5" spans="1:24">
       <c r="A17" s="71"/>
@@ -2851,10 +2882,10 @@
         <v>6303</v>
       </c>
       <c r="C17" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="73" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>55</v>
@@ -2863,7 +2894,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="75"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
       <c r="K17" s="75"/>
@@ -2882,505 +2913,509 @@
       <c r="X17" s="75"/>
     </row>
     <row r="18" s="58" customFormat="1" ht="148.5" spans="1:24">
-      <c r="A18" s="84"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="72">
         <v>6304</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="E18" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86" t="s">
+      <c r="J18" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="K18" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="L18" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="O18" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="86" t="s">
+      <c r="P18" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="86" t="s">
+      <c r="Q18" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="86" t="s">
+      <c r="R18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="86" t="s">
+      <c r="S18" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="S18" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="86" t="s">
+      <c r="U18" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="U18" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="19" s="62" customFormat="1" spans="1:24">
-      <c r="A19" s="81"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="72">
         <v>6305</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
     </row>
     <row r="20" s="62" customFormat="1" spans="1:24">
-      <c r="A20" s="84"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="72">
         <v>6306</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="85" t="s">
+      <c r="F20" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-    </row>
-    <row r="21" s="62" customFormat="1" spans="2:24">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+    </row>
+    <row r="21" s="62" customFormat="1" spans="1:24">
+      <c r="A21" s="60"/>
       <c r="B21" s="72">
         <v>6307</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-    </row>
-    <row r="22" s="62" customFormat="1" spans="2:24">
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+    </row>
+    <row r="22" s="62" customFormat="1" spans="1:24">
+      <c r="A22" s="60"/>
       <c r="B22" s="72">
         <v>6308</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-    </row>
-    <row r="23" s="62" customFormat="1" spans="2:24">
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+    </row>
+    <row r="23" s="62" customFormat="1" spans="1:24">
+      <c r="A23" s="60"/>
       <c r="B23" s="72">
         <v>6309</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-    </row>
-    <row r="24" s="62" customFormat="1" spans="2:24">
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+    </row>
+    <row r="24" s="62" customFormat="1" spans="1:24">
+      <c r="A24" s="60"/>
       <c r="B24" s="72">
         <v>6310</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="E24" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="78"/>
+    </row>
+    <row r="25" s="62" customFormat="1" ht="27" spans="1:24">
+      <c r="A25" s="80" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="W24" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="X24" s="88"/>
-    </row>
-    <row r="25" s="62" customFormat="1" ht="27" spans="1:24">
-      <c r="A25" s="89" t="s">
-        <v>88</v>
       </c>
       <c r="B25" s="72">
         <v>6311</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
     </row>
     <row r="26" s="58" customFormat="1" ht="27.95" customHeight="1" spans="1:24">
-      <c r="A26" s="91"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="72">
         <v>6311</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
     </row>
     <row r="27" s="62" customFormat="1" ht="27" spans="1:24">
       <c r="A27" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="72">
         <v>6311</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" s="58" customFormat="1" ht="27" spans="1:24">
-      <c r="A28" s="91"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="72">
         <v>6312</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="90" t="s">
+      <c r="F28" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
     </row>
     <row r="29" s="63" customFormat="1" spans="1:24">
-      <c r="A29" s="97"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="72">
         <v>6313</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
     </row>
     <row r="30" s="63" customFormat="1" ht="27" spans="1:24">
-      <c r="A30" s="97"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="72">
         <v>6314</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="74" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>100</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>33</v>
@@ -3388,245 +3423,245 @@
       <c r="F30" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
     </row>
     <row r="31" s="64" customFormat="1" spans="1:24">
-      <c r="A31" s="102"/>
-      <c r="B31" s="103">
+      <c r="A31" s="84"/>
+      <c r="B31" s="86">
         <v>6315</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="E31" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+    </row>
+    <row r="32" s="65" customFormat="1" spans="1:24">
+      <c r="A32" s="84"/>
+      <c r="B32" s="72">
+        <v>6401</v>
+      </c>
+      <c r="C32" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-    </row>
-    <row r="32" s="65" customFormat="1" spans="1:24">
-      <c r="A32" s="102"/>
-      <c r="B32" s="105">
-        <v>6401</v>
-      </c>
-      <c r="C32" s="87" t="s">
+      <c r="D32" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="E32" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="F32" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+    </row>
+    <row r="33" s="65" customFormat="1" spans="1:24">
+      <c r="A33" s="84"/>
+      <c r="B33" s="72">
+        <v>6402</v>
+      </c>
+      <c r="C33" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-    </row>
-    <row r="33" s="65" customFormat="1" spans="1:24">
-      <c r="A33" s="102"/>
-      <c r="B33" s="105">
-        <v>6402</v>
-      </c>
-      <c r="C33" s="87" t="s">
+      <c r="D33" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:24">
+      <c r="A34" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="86"/>
+      <c r="C34" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:24">
-      <c r="A34" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="37" t="s">
+      <c r="D34" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="75"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+    </row>
+    <row r="35" s="63" customFormat="1" ht="27" spans="1:24">
+      <c r="A35" s="84"/>
+      <c r="B35" s="72">
+        <v>6403</v>
+      </c>
+      <c r="C35" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="D35" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="74" t="s">
         <v>105</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-    </row>
-    <row r="35" s="63" customFormat="1" ht="27" spans="1:24">
-      <c r="A35" s="97"/>
-      <c r="B35" s="105">
-        <v>6403</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="74" t="s">
-        <v>106</v>
       </c>
       <c r="G35" s="75"/>
       <c r="H35" s="75"/>
       <c r="I35" s="75"/>
       <c r="J35" s="75"/>
       <c r="K35" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L35" s="75"/>
       <c r="M35" s="75"/>
       <c r="N35" s="75"/>
       <c r="O35" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="R35" s="100" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="Q35" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="78" t="s">
+        <v>27</v>
       </c>
       <c r="S35" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T35" s="75"/>
       <c r="U35" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V35" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W35" s="75"/>
       <c r="X35" s="75"/>
     </row>
     <row r="36" s="63" customFormat="1" spans="1:24">
-      <c r="A36" s="97"/>
-      <c r="B36" s="105">
+      <c r="A36" s="84"/>
+      <c r="B36" s="72">
         <v>6404</v>
       </c>
       <c r="C36" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="73" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="75"/>
       <c r="H36" s="75"/>
@@ -3642,7 +3677,7 @@
       <c r="R36" s="75"/>
       <c r="S36" s="75"/>
       <c r="T36" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U36" s="75"/>
       <c r="V36" s="75"/>
@@ -3650,124 +3685,124 @@
       <c r="X36" s="75"/>
     </row>
     <row r="37" s="63" customFormat="1" spans="1:24">
-      <c r="A37" s="97"/>
-      <c r="B37" s="105">
+      <c r="A37" s="84"/>
+      <c r="B37" s="72">
         <v>6405</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+    </row>
+    <row r="38" s="65" customFormat="1" spans="1:24">
+      <c r="A38" s="84"/>
+      <c r="B38" s="72">
+        <v>6406</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-    </row>
-    <row r="38" s="65" customFormat="1" spans="1:24">
-      <c r="A38" s="102"/>
-      <c r="B38" s="105">
-        <v>6406</v>
-      </c>
-      <c r="C38" s="85" t="s">
+      <c r="D38" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="E38" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="F38" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+    </row>
+    <row r="39" s="63" customFormat="1" ht="27" spans="1:24">
+      <c r="A39" s="84"/>
+      <c r="B39" s="72">
+        <v>6407</v>
+      </c>
+      <c r="C39" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="86"/>
-    </row>
-    <row r="39" s="63" customFormat="1" ht="27" spans="1:24">
-      <c r="A39" s="97"/>
-      <c r="B39" s="105">
-        <v>6407</v>
-      </c>
-      <c r="C39" s="73" t="s">
+      <c r="D39" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="74" t="s">
-        <v>123</v>
-      </c>
       <c r="E39" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="75"/>
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
       <c r="K39" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L39" s="75"/>
       <c r="M39" s="75"/>
       <c r="N39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S39" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T39" s="75"/>
       <c r="U39" s="75"/>
@@ -3776,75 +3811,75 @@
       <c r="X39" s="75"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:24">
-      <c r="A40" s="107"/>
-      <c r="B40" s="105">
+      <c r="A40" s="71"/>
+      <c r="B40" s="72">
         <v>6408</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="E40" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:24">
+      <c r="A41" s="79"/>
+      <c r="B41" s="72">
+        <v>6409</v>
+      </c>
+      <c r="C41" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:24">
-      <c r="A41" s="109"/>
-      <c r="B41" s="105">
-        <v>6409</v>
-      </c>
-      <c r="C41" s="74" t="s">
+      <c r="D41" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="E41" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="74" t="s">
-        <v>129</v>
-      </c>
       <c r="F41" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="75"/>
-      <c r="H41" s="110"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
       <c r="K41" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L41" s="75"/>
       <c r="M41" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N41" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O41" s="75"/>
       <c r="P41" s="75"/>
@@ -3858,120 +3893,120 @@
       <c r="X41" s="75"/>
     </row>
     <row r="42" s="4" customFormat="1" ht="27" spans="1:24">
-      <c r="A42" s="107"/>
-      <c r="B42" s="105">
+      <c r="A42" s="71"/>
+      <c r="B42" s="72">
         <v>6410</v>
       </c>
-      <c r="C42" s="111" t="s">
+      <c r="C42" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="E42" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+    </row>
+    <row r="43" s="65" customFormat="1" ht="12" customHeight="1" spans="1:24">
+      <c r="A43" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="112"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="112"/>
-      <c r="V42" s="112"/>
-      <c r="W42" s="112"/>
-      <c r="X42" s="112"/>
-    </row>
-    <row r="43" s="65" customFormat="1" ht="12" customHeight="1" spans="1:24">
-      <c r="A43" s="57" t="s">
+      <c r="D43" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:24">
+      <c r="A44" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="B44" s="86"/>
+      <c r="C44" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:24">
-      <c r="A44" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="20" t="s">
+      <c r="D44" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="83"/>
-      <c r="U44" s="83"/>
-      <c r="V44" s="83"/>
-      <c r="W44" s="83"/>
-      <c r="X44" s="83"/>
+      <c r="F44" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X44">
@@ -4012,10 +4047,10 @@
   <sheetData>
     <row r="1" ht="27" spans="1:10">
       <c r="A1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -4033,13 +4068,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="2:10">
@@ -4062,13 +4097,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="J2" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:10">
@@ -4091,11 +4126,11 @@
         <v>26</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -4106,10 +4141,10 @@
         <v>6001</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>26</v>
@@ -4118,11 +4153,11 @@
         <v>26</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -4133,10 +4168,10 @@
         <v>6301</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>55</v>
@@ -4145,18 +4180,18 @@
         <v>56</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:10">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12">
         <v>6401</v>
@@ -4165,10 +4200,10 @@
         <v>6302</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>55</v>
@@ -4188,10 +4223,10 @@
         <v>6304</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>55</v>
@@ -4338,13 +4373,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4395,7 +4430,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="16">
         <v>6100</v>
@@ -4404,10 +4439,10 @@
         <v>6303</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>55</v>
@@ -4416,28 +4451,28 @@
         <v>56</v>
       </c>
       <c r="H16" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="47" t="s">
         <v>154</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:10">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="7">
         <v>6312</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>55</v>
@@ -4448,7 +4483,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="13"/>
       <c r="J17" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:10">
@@ -4457,10 +4492,10 @@
         <v>6313</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>55</v>
@@ -4471,7 +4506,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="13"/>
       <c r="J18" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:10">
@@ -4480,13 +4515,13 @@
         <v>6314</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>56</v>
@@ -4501,13 +4536,13 @@
         <v>6315</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>56</v>
@@ -4522,10 +4557,10 @@
         <v>6305</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>55</v>
@@ -4536,7 +4571,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="13"/>
       <c r="J21" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -4545,13 +4580,13 @@
         <v>6316</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>56</v>
@@ -4566,13 +4601,13 @@
         <v>6317</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>56</v>
@@ -4608,10 +4643,10 @@
         <v>6307</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>55</v>
@@ -4629,10 +4664,10 @@
         <v>6306</v>
       </c>
       <c r="D26" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>55</v>
@@ -4650,10 +4685,10 @@
         <v>6309</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>55</v>
@@ -4673,10 +4708,10 @@
         <v>6308</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>55</v>
@@ -4685,7 +4720,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="50"/>
@@ -4698,10 +4733,10 @@
         <v>6310</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>55</v>
@@ -4744,10 +4779,10 @@
         <v>6319</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>33</v>
@@ -4767,10 +4802,10 @@
         <v>6320</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>33</v>
@@ -4790,22 +4825,22 @@
         <v>6400</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="I33" s="51" t="s">
         <v>176</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>177</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -4837,19 +4872,19 @@
         <v>6401</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="52"/>
       <c r="J34" s="4"/>
@@ -4862,19 +4897,19 @@
         <v>6402</v>
       </c>
       <c r="D35" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I35" s="52"/>
       <c r="J35" s="4">
@@ -4889,19 +4924,19 @@
         <v>6403</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="52"/>
     </row>
@@ -4913,19 +4948,19 @@
         <v>6404</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="I37" s="52"/>
     </row>
@@ -4937,19 +4972,19 @@
         <v>6408</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="F38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="36" t="s">
         <v>185</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>186</v>
       </c>
       <c r="I38" s="53"/>
       <c r="J38"/>
@@ -4976,19 +5011,19 @@
         <v>6406</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="G39" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I39" s="52"/>
     </row>
@@ -5000,19 +5035,19 @@
         <v>6413</v>
       </c>
       <c r="D40" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="F40" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I40" s="52"/>
     </row>
@@ -5024,19 +5059,19 @@
         <v>6410</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="I41" s="52"/>
     </row>
@@ -5048,19 +5083,19 @@
         <v>6411</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="I42" s="52"/>
     </row>
@@ -5072,19 +5107,19 @@
         <v>6412</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="F43" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="40" t="s">
         <v>194</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>195</v>
       </c>
       <c r="I43" s="52"/>
     </row>
@@ -5096,22 +5131,22 @@
         <v>6409</v>
       </c>
       <c r="D44" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="33" t="s">
+      <c r="I44" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="45" ht="27" spans="2:9">
@@ -5122,16 +5157,16 @@
         <v>6407</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="13"/>
@@ -5144,16 +5179,16 @@
         <v>6405</v>
       </c>
       <c r="D46" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>110</v>
-      </c>
       <c r="F46" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="43" t="s">
         <v>105</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>106</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="54"/>
@@ -5204,7 +5239,7 @@
   <sheetData>
     <row r="1" ht="27" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5216,12 +5251,12 @@
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5231,7 +5266,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
